--- a/Exposiciones/SI2019_Exposiciones.xlsx
+++ b/Exposiciones/SI2019_Exposiciones.xlsx
@@ -16,6 +16,168 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="G15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+-No tiene estructura documentos TES
+-Falta Bibliografía
+-Está desarreglado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+-No tiene estructura documentos TES
+-Falta Bibliografía
+-Está desarreglado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+-No tiene estructura documentos TES
+-Falta Bibliografía
+-Está desarreglado</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G75" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+-No tiene estructura documentos TES
+-Falta Bibliografía</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J75" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Ejercicio en C# en lugar de Visual Basic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G76" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+-No tiene estructura documentos TES
+-Falta Bibliografía</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
@@ -170,7 +332,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd\,\ dd/mmm/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +369,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -697,12 +885,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,16 +1146,30 @@
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="24"/>
+      <c r="G15" s="20">
+        <v>6</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0</v>
+      </c>
+      <c r="I15" s="22">
+        <v>8</v>
+      </c>
+      <c r="J15" s="22">
+        <v>4</v>
+      </c>
+      <c r="K15" s="22">
+        <v>4</v>
+      </c>
+      <c r="L15" s="22">
+        <v>2</v>
+      </c>
+      <c r="M15" s="24">
+        <v>3</v>
+      </c>
       <c r="N15" s="24">
         <f>SUM(G15:M15)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -979,16 +1181,30 @@
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="24"/>
+      <c r="G16" s="20">
+        <v>6</v>
+      </c>
+      <c r="H16" s="22">
+        <v>10</v>
+      </c>
+      <c r="I16" s="22">
+        <v>9</v>
+      </c>
+      <c r="J16" s="22">
+        <v>4</v>
+      </c>
+      <c r="K16" s="22">
+        <v>4</v>
+      </c>
+      <c r="L16" s="22">
+        <v>2</v>
+      </c>
+      <c r="M16" s="24">
+        <v>3</v>
+      </c>
       <c r="N16" s="24">
         <f>SUM(G16:M16)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -1000,16 +1216,30 @@
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="24"/>
+      <c r="G17" s="20">
+        <v>6</v>
+      </c>
+      <c r="H17" s="22">
+        <v>10</v>
+      </c>
+      <c r="I17" s="22">
+        <v>9</v>
+      </c>
+      <c r="J17" s="22">
+        <v>4</v>
+      </c>
+      <c r="K17" s="22">
+        <v>4</v>
+      </c>
+      <c r="L17" s="22">
+        <v>2</v>
+      </c>
+      <c r="M17" s="24">
+        <v>3</v>
+      </c>
       <c r="N17" s="24">
         <f>SUM(G17:M17)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -2019,16 +2249,30 @@
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="22"/>
-      <c r="L75" s="22"/>
-      <c r="M75" s="24"/>
+      <c r="G75" s="20">
+        <v>7</v>
+      </c>
+      <c r="H75" s="22">
+        <v>10</v>
+      </c>
+      <c r="I75" s="22">
+        <v>9</v>
+      </c>
+      <c r="J75" s="22">
+        <v>3</v>
+      </c>
+      <c r="K75" s="22">
+        <v>4</v>
+      </c>
+      <c r="L75" s="22">
+        <v>3</v>
+      </c>
+      <c r="M75" s="24">
+        <v>3</v>
+      </c>
       <c r="N75" s="24">
         <f>SUM(G75:M75)</f>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -2039,16 +2283,30 @@
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="22"/>
-      <c r="M76" s="24"/>
+      <c r="G76" s="20">
+        <v>7</v>
+      </c>
+      <c r="H76" s="22">
+        <v>10</v>
+      </c>
+      <c r="I76" s="22">
+        <v>9</v>
+      </c>
+      <c r="J76" s="22">
+        <v>4</v>
+      </c>
+      <c r="K76" s="22">
+        <v>4</v>
+      </c>
+      <c r="L76" s="22">
+        <v>3</v>
+      </c>
+      <c r="M76" s="24">
+        <v>3</v>
+      </c>
       <c r="N76" s="24">
         <f>SUM(G76:M76)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -2254,14 +2512,31 @@
       <c r="D89" s="22"/>
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="24"/>
-      <c r="N89" s="24"/>
+      <c r="G89" s="20">
+        <v>8</v>
+      </c>
+      <c r="H89" s="22">
+        <v>10</v>
+      </c>
+      <c r="I89" s="22">
+        <v>10</v>
+      </c>
+      <c r="J89" s="22">
+        <v>4</v>
+      </c>
+      <c r="K89" s="22">
+        <v>4</v>
+      </c>
+      <c r="L89" s="22">
+        <v>3</v>
+      </c>
+      <c r="M89" s="24">
+        <v>3</v>
+      </c>
+      <c r="N89" s="24">
+        <f>SUM(G89:M89)</f>
+        <v>42</v>
+      </c>
     </row>
     <row r="90" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="20"/>
@@ -2313,5 +2588,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>